--- a/Dataset/LUFY/Emily/Session1/Annotator2.xlsx
+++ b/Dataset/LUFY/Emily/Session1/Annotator2.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>i'm a master student at kyoto uni and study biological chemistry. i am 25.</t>
+          <t>i'm a master student at Doshisha University and study biological chemistry. i am 25.</t>
         </is>
       </c>
     </row>
